--- a/Tables/Auditorium.xlsx
+++ b/Tables/Auditorium.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarthak\Desktop\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASU_Sem_II\412_DBM_pappoti\project\phase2\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>stage_size</t>
   </si>
   <si>
     <t>no_of_green_rooms</t>
+  </si>
+  <si>
+    <t>hall_id</t>
+  </si>
+  <si>
+    <t>'H03'</t>
+  </si>
+  <si>
+    <t>'H04'</t>
+  </si>
+  <si>
+    <t>'H06'</t>
+  </si>
+  <si>
+    <t>'H08'</t>
+  </si>
+  <si>
+    <t>'H10'</t>
+  </si>
+  <si>
+    <t>'H11'</t>
+  </si>
+  <si>
+    <t>'H14'</t>
+  </si>
+  <si>
+    <t>'H15'</t>
+  </si>
+  <si>
+    <t>'H19'</t>
+  </si>
+  <si>
+    <t>'H20'</t>
+  </si>
+  <si>
+    <t>'2000 sq feet'</t>
+  </si>
+  <si>
+    <t>'1500 sq feet'</t>
+  </si>
+  <si>
+    <t>'3000 sq feet'</t>
+  </si>
+  <si>
+    <t>'3500 sq feet'</t>
   </si>
 </sst>
 </file>
@@ -65,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,27 +427,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
